--- a/doc/ShellCommand.xlsx
+++ b/doc/ShellCommand.xlsx
@@ -4,31 +4,71 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erleuchten-template</t>
+    <t>子命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-testcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-vm-template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-vm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-script-set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -36,11 +76,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
+    <t>remove-script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add-script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> --name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erleuchten-img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须，字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,44 +470,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E2"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
